--- a/forcaster-ATM/forcaster-ATM-app/src/baf-instances/01_Inst_KPI_SETUP.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-instances/01_Inst_KPI_SETUP.xlsx
@@ -15,7 +15,7 @@
     <sheet name="KPI_SETUP" sheetId="1" r:id="rId1"/>
     <sheet name="Fields definition" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="64">
   <si>
     <t>KPI_SETUP</t>
   </si>
@@ -178,9 +178,6 @@
     <t>A_IMP_TOT_PRELEVATO</t>
   </si>
   <si>
-    <t>IMP_TOT_PRELEVATO_Auto,IMP_TOT_PREL_RIPROP_Man,IMP_TOT_PREL_RIPROP_Mix</t>
-  </si>
-  <si>
     <t>A_PUNTOPRELIEVO_PRELEVATO</t>
   </si>
   <si>
@@ -227,13 +224,25 @@
   </si>
   <si>
     <t>VERSAMENTO_RMSE,VERSAMENTO_A_MPE,VERSAMENTO_A_MAPE,VERSAMENTO_A_WAPE,VERSAMENTO_MAE</t>
+  </si>
+  <si>
+    <t>A_PUNTOPRELIEVO_PRELEVATO_MONTE</t>
+  </si>
+  <si>
+    <t>PRELEVATO_RMSE_MONTE,PRELEVATO_A_MPE_MONTE,PRELEVATO_A_MAPE_MONTE,PRELEVATO_A_WAPE_MONTE,PRELEVATO_MAE_MONTE</t>
+  </si>
+  <si>
+    <t>IMP_TOT_PRELEVATO_Auto </t>
+  </si>
+  <si>
+    <t>IMP_TOT_PRELEVATO_Auto,IMP_TOT_PRELEVATO_Man,IMP_TOT_PRELEVATO_Mix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -251,6 +260,12 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -278,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -287,6 +302,7 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,6 +701,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10220325" cy="9563100"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -951,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,13 +1114,13 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1073,7 +1137,7 @@
         <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
         <v>43</v>
@@ -1082,10 +1146,10 @@
         <v>43</v>
       </c>
       <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
         <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>57</v>
       </c>
       <c r="P3"/>
     </row>
@@ -1094,13 +1158,13 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1117,19 +1181,19 @@
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4"/>
     </row>
@@ -1138,13 +1202,13 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1161,19 +1225,19 @@
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
         <v>58</v>
-      </c>
-      <c r="O5" t="s">
-        <v>59</v>
       </c>
       <c r="P5"/>
     </row>
@@ -1182,13 +1246,13 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1205,26 +1269,71 @@
         <v>36</v>
       </c>
       <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6"/>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4">
+        <v>-8</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-2</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
